--- a/Rapport/BlaajjPaint-Fonctionnalite.xlsx
+++ b/Rapport/BlaajjPaint-Fonctionnalite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremie\Documents\HEIG\PRO\BlaajjPaint-V2\BlaajjPaint\Fichiers rendus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Benoit/OwnCloud/HEIG-VD/2eme annee/2eme semestre/PRO/BlaajjPaint/Rapport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DEB649-ED61-4AE9-902B-142781750EF5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF781E-101C-2540-B860-4DE016C50329}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{5683736C-791D-418A-A91D-917F92C2DC86}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19600" windowHeight="12980" xr2:uid="{5683736C-791D-418A-A91D-917F92C2DC86}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -286,9 +286,6 @@
     <t>Plusieurs calques pourront être fusionnés en un seul.</t>
   </si>
   <si>
-    <t>optionnels</t>
-  </si>
-  <si>
     <t>Ajouter différentes formes de pinceau.</t>
   </si>
   <si>
@@ -438,7 +435,10 @@
     <t>middle</t>
   </si>
   <si>
-    <t>Obligatoires</t>
+    <t>Fonctionnalités obligatoires</t>
+  </si>
+  <si>
+    <t>Fonctionnalités optionnelles</t>
   </si>
 </sst>
 </file>
@@ -829,355 +829,358 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E0D27-C3CA-444B-A667-3484F3D8EFC9}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="103.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="39" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
